--- a/Hospitais/extraidos/hospitais_novembro.xlsx
+++ b/Hospitais/extraidos/hospitais_novembro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -40,9 +49,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -208,6 +205,15 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>0.20%</t>
+  </si>
+  <si>
     <t>1.84%</t>
   </si>
   <si>
@@ -217,9 +223,6 @@
     <t>1.43%</t>
   </si>
   <si>
-    <t>1.02%</t>
-  </si>
-  <si>
     <t>4.71%</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
     <t>5.33%</t>
   </si>
   <si>
-    <t>0.20%</t>
-  </si>
-  <si>
     <t>0.61%</t>
   </si>
   <si>
@@ -241,16 +241,13 @@
     <t>9.22%</t>
   </si>
   <si>
-    <t>1.64%</t>
-  </si>
-  <si>
     <t>3.48%</t>
   </si>
   <si>
     <t>10.04%</t>
   </si>
   <si>
-    <t>2.25%</t>
+    <t>2.05%</t>
   </si>
   <si>
     <t>11.07%</t>
@@ -617,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,13 +642,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -662,13 +656,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,13 +670,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -696,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -713,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -730,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -747,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -764,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -781,10 +769,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -798,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -815,13 +803,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -832,13 +820,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -849,13 +837,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -866,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -886,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -900,13 +888,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -917,13 +905,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -934,13 +922,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -951,13 +939,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -968,13 +956,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -985,13 +973,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1002,13 +990,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1019,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1036,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1056,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
@@ -1070,13 +1058,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1087,13 +1075,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1104,13 +1092,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1121,13 +1109,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1138,13 +1126,30 @@
         <v>33</v>
       </c>
       <c r="C31">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Hospitais/extraidos/hospitais_novembro.xlsx
+++ b/Hospitais/extraidos/hospitais_novembro.xlsx
@@ -28,15 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>5.32</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>5.32</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -205,13 +205,13 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>0.20%</t>
+  </si>
+  <si>
     <t>1.02%</t>
   </si>
   <si>
     <t>1.64%</t>
-  </si>
-  <si>
-    <t>0.20%</t>
   </si>
   <si>
     <t>1.84%</t>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
@@ -792,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -826,7 +826,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -996,7 +996,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
